--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_5.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_5.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45040.73706385928</v>
+        <v>42932.57879498109</v>
       </c>
     </row>
     <row r="7">
@@ -26314,13 +26314,13 @@
         <v>26876.85138286161</v>
       </c>
       <c r="C2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="D2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="E2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="F2" t="n">
         <v>26876.8513828616</v>
@@ -26332,7 +26332,7 @@
         <v>26876.8513828616</v>
       </c>
       <c r="I2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="J2" t="n">
         <v>26876.8513828616</v>
@@ -26344,16 +26344,16 @@
         <v>26876.8513828616</v>
       </c>
       <c r="M2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="N2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="O2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="P2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="E4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="F4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="G4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="H4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="I4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="J4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="K4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="L4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="M4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="N4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="O4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="P4" t="n">
-        <v>10498.77007143031</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17249.51868856871</v>
+        <v>-17501.48917028304</v>
       </c>
       <c r="C6" t="n">
-        <v>-17249.51868856871</v>
+        <v>-17501.48917028304</v>
       </c>
       <c r="D6" t="n">
-        <v>-17249.51868856871</v>
+        <v>-17501.48917028304</v>
       </c>
       <c r="E6" t="n">
-        <v>16378.08131143129</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="F6" t="n">
-        <v>16378.08131143128</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="G6" t="n">
-        <v>16378.08131143128</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="H6" t="n">
-        <v>16378.08131143129</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="I6" t="n">
-        <v>16378.08131143129</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="J6" t="n">
-        <v>16378.08131143129</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="K6" t="n">
-        <v>16378.08131143129</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="L6" t="n">
-        <v>16378.08131143129</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="M6" t="n">
-        <v>16378.08131143129</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="N6" t="n">
-        <v>16378.08131143128</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="O6" t="n">
-        <v>16378.08131143129</v>
+        <v>16126.11082971696</v>
       </c>
       <c r="P6" t="n">
-        <v>16378.08131143128</v>
+        <v>16126.11082971696</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_5.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_5.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42932.57879498109</v>
+        <v>42932.57879498111</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26316,10 @@
         <v>26876.85138286161</v>
       </c>
       <c r="C2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="D2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="E2" t="n">
         <v>26876.85138286161</v>
@@ -26326,22 +26328,22 @@
         <v>26876.8513828616</v>
       </c>
       <c r="G2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="H2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="I2" t="n">
         <v>26876.85138286161</v>
       </c>
       <c r="J2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="K2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="L2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="M2" t="n">
         <v>26876.85138286161</v>
@@ -26555,7 +26557,7 @@
         <v>16126.11082971696</v>
       </c>
       <c r="N6" t="n">
-        <v>16126.11082971696</v>
+        <v>16126.11082971697</v>
       </c>
       <c r="O6" t="n">
         <v>16126.11082971696</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_5.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42932.57879498111</v>
+        <v>-83828.37507428393</v>
       </c>
     </row>
     <row r="7">
@@ -26316,16 +26316,16 @@
         <v>26876.85138286161</v>
       </c>
       <c r="C2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="D2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="E2" t="n">
         <v>26876.85138286161</v>
       </c>
       <c r="F2" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286161</v>
       </c>
       <c r="G2" t="n">
         <v>26876.85138286161</v>
@@ -26352,7 +26352,7 @@
         <v>26876.85138286161</v>
       </c>
       <c r="O2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="P2" t="n">
         <v>26876.85138286161</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="E6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596822005</v>
       </c>
       <c r="F6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596822005</v>
       </c>
       <c r="G6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596822005</v>
       </c>
       <c r="H6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596822005</v>
       </c>
       <c r="I6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596822005</v>
       </c>
       <c r="J6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596822005</v>
       </c>
       <c r="K6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596822005</v>
       </c>
       <c r="L6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596822005</v>
       </c>
       <c r="M6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596822005</v>
       </c>
       <c r="N6" t="n">
-        <v>16126.11082971697</v>
+        <v>975.4368596822005</v>
       </c>
       <c r="O6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821969</v>
       </c>
       <c r="P6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596822005</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_5.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83828.37507428393</v>
+        <v>30256.4834080546</v>
       </c>
     </row>
     <row r="7">
@@ -26325,37 +26325,37 @@
         <v>26876.85138286161</v>
       </c>
       <c r="F2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="G2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="H2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="I2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="J2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="K2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="L2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="M2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="N2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="O2" t="n">
         <v>26876.8513828616</v>
       </c>
       <c r="P2" t="n">
-        <v>26876.85138286161</v>
+        <v>26876.8513828616</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32652.1631403178</v>
+        <v>-19016.55656728651</v>
       </c>
       <c r="C6" t="n">
-        <v>-32652.1631403178</v>
+        <v>-19016.55656728651</v>
       </c>
       <c r="D6" t="n">
-        <v>-32652.1631403178</v>
+        <v>-19016.55656728651</v>
       </c>
       <c r="E6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271349</v>
       </c>
       <c r="F6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="G6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="H6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="I6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="J6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="K6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="L6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="M6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="N6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="O6" t="n">
-        <v>975.4368596821969</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="P6" t="n">
-        <v>975.4368596822005</v>
+        <v>14611.04343271348</v>
       </c>
     </row>
   </sheetData>
